--- a/data/trans_orig/Q04C1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q04C1_2023-Provincia-trans_orig.xlsx
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>16.50811831296971</v>
+        <v>16.56108451006323</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>19.62896143232005</v>
+        <v>19.64371950720873</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18.7075091305445</v>
+        <v>18.90878303839193</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>20.74676485116712</v>
+        <v>20.7596939730826</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>23.13797144265372</v>
+        <v>23.33913550317564</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21.49597026489145</v>
+        <v>21.61545820213614</v>
       </c>
     </row>
     <row r="7">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>18.51600044618947</v>
+        <v>18.51600044618946</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>22.80623711018091</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>16.72346609637342</v>
+        <v>16.77478497607804</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>21.07869080091467</v>
+        <v>21.24626035847183</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>19.41341177370222</v>
+        <v>19.42448033261397</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>20.55397713725952</v>
+        <v>20.3559512383959</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>24.42351573039775</v>
+        <v>24.36929917531659</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>21.81712560224313</v>
+        <v>21.78923615093815</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         <v>21.49257927809394</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>22.43831908423715</v>
+        <v>22.43831908423716</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>21.9536746125633</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>19.64755664339797</v>
+        <v>19.68769155141032</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>20.5897553439018</v>
+        <v>20.66657168880128</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>20.5977579280446</v>
+        <v>20.66015591407828</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>23.52692106898915</v>
+        <v>23.22454106408982</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>24.26872188660062</v>
+        <v>24.50140598818076</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23.28095907979093</v>
+        <v>23.32480477401564</v>
       </c>
     </row>
     <row r="13">
@@ -728,7 +728,7 @@
         <v>20.39469109489832</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>21.01228810990805</v>
+        <v>21.01228810990804</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>20.72060980963352</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>17.58088815556298</v>
+        <v>17.69763361210556</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>19.02294419229785</v>
+        <v>18.96036556364436</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>19.0636681819451</v>
+        <v>19.1960975338482</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>23.42619693832693</v>
+        <v>23.17351572381314</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>22.94039444605117</v>
+        <v>23.01074350253519</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>22.39131796987406</v>
+        <v>22.45296114019217</v>
       </c>
     </row>
     <row r="16">
@@ -786,7 +786,7 @@
         <v>20.75451765038031</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19.73479223825827</v>
+        <v>19.73479223825825</v>
       </c>
     </row>
     <row r="17">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>16.71580206157639</v>
+        <v>16.74387765022195</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>19.11087911176475</v>
+        <v>19.374345076668</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>18.43373312982293</v>
+        <v>18.51856675505682</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>20.56816256856897</v>
+        <v>20.2940867812782</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>22.4440192045794</v>
+        <v>22.47411731556553</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>21.01563968310112</v>
+        <v>20.96285799422528</v>
       </c>
     </row>
     <row r="19">
@@ -835,7 +835,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>20.63140847993643</v>
+        <v>20.63140847993642</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>23.09369493986021</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>18.51155576002407</v>
+        <v>18.64052877115794</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>21.16491148243216</v>
+        <v>21.2236968372071</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>20.47984857243295</v>
+        <v>20.43860702657156</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>22.8420707075312</v>
+        <v>22.62598660978193</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>25.00817915080615</v>
+        <v>25.09628461088189</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>23.32656476294407</v>
+        <v>23.32571917270139</v>
       </c>
     </row>
     <row r="22">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>19.13977509395152</v>
+        <v>19.13977509395151</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>21.07940114951632</v>
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>17.51392931689018</v>
+        <v>17.54579777152061</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>19.68453166854205</v>
+        <v>19.71409112336591</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>19.09904353477641</v>
+        <v>19.11323037600589</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>20.8043154844658</v>
+        <v>20.77131482856465</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>22.63227215673787</v>
+        <v>22.72714803423837</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>21.23844238436213</v>
+        <v>21.45497364436447</v>
       </c>
     </row>
     <row r="25">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>18.38918630876231</v>
+        <v>18.28250260361986</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>19.49407298831852</v>
+        <v>19.6269625167253</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>19.25290574514101</v>
+        <v>19.16969382752749</v>
       </c>
     </row>
     <row r="27">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>20.91081744100552</v>
+        <v>20.91982578071758</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>21.82890921493302</v>
+        <v>21.93918180510273</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>21.06752448406883</v>
+        <v>21.06072216675192</v>
       </c>
     </row>
     <row r="28">
@@ -1017,13 +1017,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>18.89752195991934</v>
+        <v>18.9497804360668</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>20.82889385323972</v>
+        <v>21.03674286122095</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>20.11206140711054</v>
+        <v>20.10480030046553</v>
       </c>
     </row>
     <row r="30">
@@ -1034,13 +1034,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>20.22256430486456</v>
+        <v>20.25506733801778</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>22.0617409043046</v>
+        <v>22.2401434528935</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>21.03438984394537</v>
+        <v>20.99915540760027</v>
       </c>
     </row>
     <row r="31">
